--- a/fr_nuts.xlsx
+++ b/fr_nuts.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="22476" windowHeight="10056"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="22476" windowHeight="10056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="472">
   <si>
     <t>Codes</t>
   </si>
@@ -2088,12 +2088,48 @@
   <si>
     <t>FRZZZ</t>
   </si>
+  <si>
+    <t>Rhône (arrondissement de Villefranche-sur-Saône)</t>
+  </si>
+  <si>
+    <t>métropole de Lyon (arrondissement de Lyon)</t>
+  </si>
+  <si>
+    <t>nuts3</t>
+  </si>
+  <si>
+    <t>nuts2</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>departement</t>
+  </si>
+  <si>
+    <t>Ile-de-France</t>
+  </si>
+  <si>
+    <t>Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t>Grand-Est</t>
+  </si>
+  <si>
+    <t>Pays-de-la-Loire</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2439,6 +2475,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2446,12 +2488,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2544,7 +2580,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2579,7 +2614,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2755,16 +2789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C107" sqref="A1:K242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +2821,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.4" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -2806,7 +2840,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.4" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.4" thickBot="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2864,7 +2898,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.4" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>11</v>
@@ -2887,7 +2921,7 @@
       </c>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.4" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
@@ -2910,7 +2944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.2" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -2933,7 +2967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.4" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -2956,7 +2990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.4" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
@@ -2979,7 +3013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.2" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -3002,7 +3036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="28.2" thickBot="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
@@ -3025,7 +3059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.4" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -3048,7 +3082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.4" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5">
@@ -3071,7 +3105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.4" thickBot="1">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3094,7 +3128,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.4" thickBot="1">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>21</v>
@@ -3117,7 +3151,7 @@
       </c>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.4" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5">
@@ -3140,7 +3174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.4" thickBot="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5">
@@ -3163,7 +3197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.4" thickBot="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5">
@@ -3186,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.4" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5">
@@ -3209,7 +3243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.4" thickBot="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5">
         <v>22</v>
@@ -3232,7 +3266,7 @@
       </c>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="14.4" thickBot="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5">
@@ -3255,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.4" thickBot="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5">
@@ -3278,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="14.4" thickBot="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5">
@@ -3301,7 +3335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.4" thickBot="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>23</v>
@@ -3324,7 +3358,7 @@
       </c>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="14.4" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5">
@@ -3347,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="28.2" thickBot="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5">
@@ -3370,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="14.4" thickBot="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>24</v>
@@ -3393,7 +3427,7 @@
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="14.4" thickBot="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5">
@@ -3416,7 +3450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="14.4" thickBot="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5">
@@ -3439,7 +3473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="14.4" thickBot="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5">
@@ -3462,7 +3496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="14.4" thickBot="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5">
@@ -3485,7 +3519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="14.4" thickBot="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5">
@@ -3508,7 +3542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="14.4" thickBot="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5">
@@ -3531,7 +3565,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="14.4" thickBot="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5">
         <v>25</v>
@@ -3554,7 +3588,7 @@
       </c>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="14.4" thickBot="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5">
@@ -3577,7 +3611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="14.4" thickBot="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5">
@@ -3600,7 +3634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.4" thickBot="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5">
@@ -3623,7 +3657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="14.4" thickBot="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5">
         <v>26</v>
@@ -3646,7 +3680,7 @@
       </c>
       <c r="K38" s="26"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="14.4" thickBot="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5">
@@ -3669,7 +3703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="14.4" thickBot="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5">
@@ -3692,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="28.2" thickBot="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5">
@@ -3715,7 +3749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="14.4" thickBot="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5">
@@ -3738,7 +3772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="14.4" thickBot="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>27</v>
@@ -3761,7 +3795,7 @@
       </c>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="14.4" thickBot="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5">
@@ -3784,7 +3818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="14.4" thickBot="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5">
@@ -3807,7 +3841,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="14.4" thickBot="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5">
@@ -3830,7 +3864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="14.4" thickBot="1">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5">
@@ -3853,7 +3887,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="14.4" thickBot="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5">
@@ -3876,7 +3910,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="28.2" thickBot="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5">
@@ -3899,7 +3933,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="14.4" thickBot="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5">
@@ -3922,7 +3956,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="28.2" thickBot="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5">
@@ -3945,7 +3979,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="14.4" thickBot="1">
       <c r="A52" s="5"/>
       <c r="B52" s="5">
         <v>28</v>
@@ -3968,7 +4002,7 @@
       </c>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="14.4" thickBot="1">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5">
@@ -3991,7 +4025,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="14.4" thickBot="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5">
@@ -4014,7 +4048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="14.4" thickBot="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5">
@@ -4037,7 +4071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="14.4" thickBot="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5">
@@ -4060,7 +4094,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="28.2" thickBot="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5">
@@ -4083,7 +4117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="14.4" thickBot="1">
       <c r="A58" s="5">
         <v>3</v>
       </c>
@@ -4106,7 +4140,7 @@
       <c r="J58" s="18"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="14.4" thickBot="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5">
         <v>31</v>
@@ -4129,7 +4163,7 @@
       </c>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="14.4" thickBot="1">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5">
@@ -4152,7 +4186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="14.4" thickBot="1">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5">
@@ -4175,7 +4209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="14.4" thickBot="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5">
         <v>32</v>
@@ -4198,7 +4232,7 @@
       </c>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="14.4" thickBot="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5">
@@ -4221,7 +4255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="14.4" thickBot="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5">
@@ -4244,7 +4278,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="14.4" thickBot="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5">
@@ -4267,7 +4301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="14.4" thickBot="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5">
@@ -4290,7 +4324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="14.4" thickBot="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5">
@@ -4313,7 +4347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="14.4" thickBot="1">
       <c r="A68" s="5">
         <v>4</v>
       </c>
@@ -4336,7 +4370,7 @@
       <c r="J68" s="18"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="14.4" thickBot="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5">
         <v>41</v>
@@ -4359,7 +4393,7 @@
       </c>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="28.2" thickBot="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5">
@@ -4382,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="14.4" thickBot="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5">
@@ -4405,7 +4439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="14.4" thickBot="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5">
@@ -4428,7 +4462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="14.4" thickBot="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5">
@@ -4451,7 +4485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="14.4" thickBot="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5">
         <v>42</v>
@@ -4474,7 +4508,7 @@
       </c>
       <c r="K74" s="26"/>
     </row>
-    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="14.4" thickBot="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5">
@@ -4497,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="14.4" thickBot="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5">
@@ -4520,7 +4554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="14.4" thickBot="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5">
         <v>43</v>
@@ -4543,7 +4577,7 @@
       </c>
       <c r="K77" s="26"/>
     </row>
-    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="14.4" thickBot="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5">
@@ -4566,7 +4600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="14.4" thickBot="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5">
@@ -4589,7 +4623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="14.4" thickBot="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5">
@@ -4612,7 +4646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="28.2" thickBot="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5">
@@ -4635,7 +4669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="14.4" thickBot="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5">
         <v>44</v>
@@ -4658,7 +4692,7 @@
       </c>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="14.4" thickBot="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5">
@@ -4681,7 +4715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="14.4" thickBot="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5">
@@ -4704,7 +4738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="14.4" thickBot="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5">
@@ -4727,7 +4761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="14.4" thickBot="1">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5">
@@ -4750,7 +4784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="28.2" thickBot="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5">
@@ -4773,7 +4807,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="14.4" thickBot="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5">
@@ -4796,7 +4830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="14.4" thickBot="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5">
@@ -4819,7 +4853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="14.4" thickBot="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5">
@@ -4842,7 +4876,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="14.4" thickBot="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5">
@@ -4865,7 +4899,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="14.4" thickBot="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5">
@@ -4888,7 +4922,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="14.4" thickBot="1">
       <c r="A93" s="5">
         <v>5</v>
       </c>
@@ -4911,7 +4945,7 @@
       <c r="J93" s="23"/>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="14.4" thickBot="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5">
         <v>52</v>
@@ -4934,7 +4968,7 @@
       </c>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="28.2" thickBot="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5">
@@ -4957,7 +4991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="14.4" thickBot="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5">
@@ -4980,7 +5014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="14.4" thickBot="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5">
@@ -5003,7 +5037,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="14.4" thickBot="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5">
@@ -5026,7 +5060,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="14.4" thickBot="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5">
@@ -5049,7 +5083,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="14.4" thickBot="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5">
         <v>53</v>
@@ -5072,7 +5106,7 @@
       </c>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="14.4" thickBot="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5">
@@ -5095,7 +5129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="14.4" thickBot="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5">
@@ -5118,7 +5152,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="14.4" thickBot="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5">
@@ -5141,7 +5175,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="14.4" thickBot="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5">
@@ -5164,7 +5198,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="14.4" thickBot="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5">
         <v>54</v>
@@ -5187,7 +5221,7 @@
       </c>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="14.4" thickBot="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5">
@@ -5210,7 +5244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="28.2" thickBot="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5">
@@ -5233,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="14.4" thickBot="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5">
@@ -5256,7 +5290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="14.4" thickBot="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5">
@@ -5279,7 +5313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="14.4" thickBot="1">
       <c r="A110" s="5">
         <v>7</v>
       </c>
@@ -5302,7 +5336,7 @@
       <c r="J110" s="23"/>
       <c r="K110" s="24"/>
     </row>
-    <row r="111" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="14.4" thickBot="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5">
         <v>72</v>
@@ -5325,7 +5359,7 @@
       </c>
       <c r="K111" s="26"/>
     </row>
-    <row r="112" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="14.4" thickBot="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5">
@@ -5348,7 +5382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="14.4" thickBot="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5">
@@ -5371,7 +5405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="14.4" thickBot="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5">
@@ -5394,7 +5428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="28.2" thickBot="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5">
@@ -5417,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="28.2" thickBot="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5">
@@ -5440,7 +5474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="14.4" thickBot="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5">
         <v>73</v>
@@ -5463,7 +5497,7 @@
       </c>
       <c r="K117" s="26"/>
     </row>
-    <row r="118" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="14.4" thickBot="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5">
@@ -5486,7 +5520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="14.4" thickBot="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5">
@@ -5509,7 +5543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="28.2" thickBot="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5">
@@ -5532,7 +5566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="14.4" thickBot="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5">
@@ -5555,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="14.4" thickBot="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5">
@@ -5578,7 +5612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="28.2" thickBot="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5">
@@ -5601,7 +5635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="14.4" thickBot="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5">
@@ -5624,7 +5658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="28.2" thickBot="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5">
@@ -5647,7 +5681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="14.4" thickBot="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5">
         <v>74</v>
@@ -5670,7 +5704,7 @@
       </c>
       <c r="K126" s="26"/>
     </row>
-    <row r="127" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="14.4" thickBot="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5">
@@ -5693,7 +5727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="14.4" thickBot="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5">
@@ -5716,7 +5750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="14.4" thickBot="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5">
@@ -5739,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="14.4" thickBot="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5">
         <v>75</v>
@@ -5762,7 +5796,7 @@
       </c>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" ht="14.4" thickBot="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5">
@@ -5785,7 +5819,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" ht="14.4" thickBot="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5">
@@ -5808,7 +5842,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="14.4" thickBot="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5">
@@ -5831,7 +5865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="28.2" thickBot="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5">
@@ -5854,7 +5888,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="14.4" thickBot="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5">
@@ -5877,7 +5911,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="14.4" thickBot="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5">
@@ -5900,7 +5934,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="14.4" thickBot="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5">
@@ -5923,7 +5957,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" ht="28.2" thickBot="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5">
@@ -5946,7 +5980,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" ht="14.4" thickBot="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5">
@@ -5969,7 +6003,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" ht="14.4" thickBot="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5">
@@ -5992,7 +6026,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="14.4" thickBot="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5">
@@ -6015,7 +6049,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="14.4" thickBot="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5">
@@ -6038,7 +6072,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="28.2" thickBot="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5">
@@ -6061,7 +6095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="28.2" thickBot="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5">
@@ -6084,7 +6118,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="28.2" thickBot="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5">
@@ -6107,7 +6141,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="14.4" thickBot="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5">
@@ -6130,7 +6164,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="14.4" thickBot="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5">
@@ -6153,7 +6187,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="28.2" thickBot="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5">
@@ -6176,7 +6210,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="14.4" thickBot="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5">
@@ -6199,7 +6233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="14.4" thickBot="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5">
@@ -6222,7 +6256,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="14.4" thickBot="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5">
         <v>76</v>
@@ -6245,7 +6279,7 @@
       </c>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="14.4" thickBot="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5">
@@ -6268,7 +6302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="14.4" thickBot="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5">
@@ -6291,7 +6325,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="14.4" thickBot="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5">
@@ -6314,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="14.4" thickBot="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5">
@@ -6337,7 +6371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" ht="28.2" thickBot="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5">
@@ -6360,7 +6394,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="14.4" thickBot="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5">
@@ -6383,7 +6417,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="14.4" thickBot="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5">
@@ -6406,7 +6440,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="14.4" thickBot="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5">
@@ -6429,7 +6463,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="14.4" thickBot="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5">
@@ -6452,7 +6486,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="28.2" thickBot="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5">
@@ -6475,7 +6509,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="28.2" thickBot="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5">
@@ -6498,7 +6532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="14.4" thickBot="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5">
@@ -6521,7 +6555,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="28.2" thickBot="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5">
@@ -6544,7 +6578,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="14.4" thickBot="1">
       <c r="A165" s="5">
         <v>8</v>
       </c>
@@ -6567,7 +6601,7 @@
       <c r="J165" s="18"/>
       <c r="K165" s="19"/>
     </row>
-    <row r="166" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="14.4" thickBot="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5">
         <v>82</v>
@@ -6590,7 +6624,7 @@
       </c>
       <c r="K166" s="26"/>
     </row>
-    <row r="167" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="14.4" thickBot="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5">
@@ -6613,7 +6647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="14.4" thickBot="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5">
@@ -6636,7 +6670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="14.4" thickBot="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5">
@@ -6659,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="14.4" thickBot="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5">
@@ -6682,7 +6716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="14.4" thickBot="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5">
@@ -6705,7 +6739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="55.8" thickBot="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5">
@@ -6728,7 +6762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="41.4" thickBot="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
@@ -6751,7 +6785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="31.2" thickBot="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
@@ -6774,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="14.4" thickBot="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5">
@@ -6797,7 +6831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="14.4" thickBot="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5">
@@ -6820,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" ht="14.4" thickBot="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5">
         <v>83</v>
@@ -6843,7 +6877,7 @@
       </c>
       <c r="K177" s="26"/>
     </row>
-    <row r="178" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" ht="14.4" thickBot="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5">
@@ -6866,7 +6900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" ht="14.4" thickBot="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5">
@@ -6889,7 +6923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" ht="14.4" thickBot="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5">
@@ -6912,7 +6946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" ht="14.4" thickBot="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5">
@@ -6935,7 +6969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" ht="14.4" thickBot="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5">
         <v>84</v>
@@ -6958,7 +6992,7 @@
       </c>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" ht="14.4" thickBot="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5">
@@ -6981,7 +7015,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" ht="14.4" thickBot="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5">
@@ -7004,7 +7038,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" ht="14.4" thickBot="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5">
@@ -7027,7 +7061,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" ht="14.4" thickBot="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5">
@@ -7050,7 +7084,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" ht="14.4" thickBot="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5">
@@ -7073,7 +7107,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" ht="14.4" thickBot="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5">
@@ -7096,7 +7130,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" ht="14.4" thickBot="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5">
@@ -7119,7 +7153,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" ht="14.4" thickBot="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5">
@@ -7142,7 +7176,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" ht="14.4" thickBot="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5">
@@ -7165,7 +7199,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" ht="55.8" thickBot="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5">
@@ -7188,7 +7222,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" ht="41.4" thickBot="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
@@ -7211,7 +7245,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" ht="31.2" thickBot="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
@@ -7234,7 +7268,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" ht="14.4" thickBot="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5">
@@ -7257,7 +7291,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" ht="14.4" thickBot="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5">
@@ -7280,7 +7314,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" ht="14.4" thickBot="1">
       <c r="A197" s="5">
         <v>9</v>
       </c>
@@ -7303,7 +7337,7 @@
       <c r="J197" s="23"/>
       <c r="K197" s="24"/>
     </row>
-    <row r="198" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" ht="14.4" thickBot="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5">
         <v>91</v>
@@ -7326,7 +7360,7 @@
       </c>
       <c r="K198" s="26"/>
     </row>
-    <row r="199" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" ht="14.4" thickBot="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5">
@@ -7349,7 +7383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" ht="14.4" thickBot="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5">
@@ -7372,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" ht="14.4" thickBot="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5">
@@ -7395,7 +7429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" ht="14.4" thickBot="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5">
@@ -7418,7 +7452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" ht="28.2" thickBot="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5">
@@ -7441,7 +7475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" ht="14.4" thickBot="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5">
         <v>93</v>
@@ -7464,7 +7498,7 @@
       </c>
       <c r="K204" s="21"/>
     </row>
-    <row r="205" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" ht="42" thickBot="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5">
@@ -7487,7 +7521,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" ht="14.4" thickBot="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5">
@@ -7510,7 +7544,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" ht="28.2" thickBot="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5">
@@ -7533,7 +7567,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" ht="28.2" thickBot="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5">
@@ -7556,7 +7590,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" ht="14.4" thickBot="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5">
@@ -7579,7 +7613,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" ht="14.4" thickBot="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5">
@@ -7602,7 +7636,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" ht="14.4" thickBot="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5">
         <v>94</v>
@@ -7625,7 +7659,7 @@
       </c>
       <c r="K211" s="21"/>
     </row>
-    <row r="212" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" ht="14.4" thickBot="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5" t="s">
@@ -7648,7 +7682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" ht="14.4" thickBot="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5" t="s">
@@ -7671,7 +7705,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A214" s="5">
         <v>0</v>
       </c>
@@ -7694,7 +7728,7 @@
       <c r="J214" s="28"/>
       <c r="K214" s="29"/>
     </row>
-    <row r="215" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5">
         <v>1</v>
@@ -7717,7 +7751,7 @@
       </c>
       <c r="K215" s="31"/>
     </row>
-    <row r="216" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" ht="14.4" thickBot="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5">
@@ -7740,7 +7774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5">
         <v>2</v>
@@ -7763,7 +7797,7 @@
       </c>
       <c r="K217" s="31"/>
     </row>
-    <row r="218" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" ht="14.4" thickBot="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5">
@@ -7786,7 +7820,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5">
         <v>3</v>
@@ -7809,7 +7843,7 @@
       </c>
       <c r="K219" s="31"/>
     </row>
-    <row r="220" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" ht="28.2" thickBot="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5">
@@ -7832,7 +7866,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5">
         <v>4</v>
@@ -7855,7 +7889,7 @@
       </c>
       <c r="K221" s="31"/>
     </row>
-    <row r="222" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" ht="14.4" thickBot="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5">
@@ -7878,7 +7912,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" ht="14.4" thickBot="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5">
         <v>6</v>
@@ -7901,7 +7935,7 @@
       </c>
       <c r="K223" s="31"/>
     </row>
-    <row r="224" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" ht="14.4" thickBot="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5">
@@ -7924,7 +7958,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" ht="14.4" thickBot="1">
       <c r="A225" s="5" t="s">
         <v>15</v>
       </c>
@@ -7936,18 +7970,18 @@
       <c r="E225" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F225" s="32" t="s">
+      <c r="F225" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="G225" s="33"/>
-      <c r="H225" s="34"/>
-      <c r="I225" s="32" t="s">
+      <c r="G225" s="35"/>
+      <c r="H225" s="36"/>
+      <c r="I225" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="J225" s="33"/>
-      <c r="K225" s="34"/>
-    </row>
-    <row r="226" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J225" s="35"/>
+      <c r="K225" s="36"/>
+    </row>
+    <row r="226" spans="1:11" ht="14.4" thickBot="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5" t="s">
         <v>15</v>
@@ -7970,7 +8004,7 @@
       </c>
       <c r="K226" s="21"/>
     </row>
-    <row r="227" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" ht="41.4" thickBot="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5">
@@ -7993,7 +8027,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" ht="41.4" thickBot="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5">
@@ -8016,7 +8050,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" ht="31.2" thickBot="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5">
@@ -8039,7 +8073,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" ht="41.4" thickBot="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5">
@@ -8062,7 +8096,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" ht="41.4" thickBot="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5">
@@ -8085,7 +8119,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5" t="s">
         <v>15</v>
@@ -8108,7 +8142,7 @@
       </c>
       <c r="K232" s="26"/>
     </row>
-    <row r="233" spans="1:11" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" ht="51.6" thickBot="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5">
@@ -8131,7 +8165,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" ht="42" thickBot="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5">
@@ -8154,7 +8188,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" ht="28.2" thickBot="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5">
@@ -8177,7 +8211,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" ht="14.4" thickBot="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5">
@@ -8200,7 +8234,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" ht="51.6" thickBot="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5">
@@ -8223,7 +8257,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" ht="14.4" thickBot="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5">
@@ -8246,7 +8280,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" ht="41.4" thickBot="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5">
@@ -8269,7 +8303,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" ht="41.4" thickBot="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5">
@@ -8292,7 +8326,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" ht="14.4" thickBot="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5" t="s">
         <v>15</v>
@@ -8305,17 +8339,17 @@
         <v>15</v>
       </c>
       <c r="F241" s="5"/>
-      <c r="G241" s="35" t="s">
+      <c r="G241" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="H241" s="36"/>
+      <c r="H241" s="33"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="35" t="s">
+      <c r="J241" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="K241" s="36"/>
-    </row>
-    <row r="242" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K241" s="33"/>
+    </row>
+    <row r="242" spans="1:11" ht="14.4" thickBot="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
@@ -8707,24 +8741,1817 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:D106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>469</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>469</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>469</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>470</v>
+      </c>
+      <c r="E44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>470</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>470</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>470</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>33</v>
+      </c>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>300</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>300</v>
+      </c>
+      <c r="E67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" t="s">
+        <v>301</v>
+      </c>
+      <c r="E76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" t="s">
+        <v>301</v>
+      </c>
+      <c r="E79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" t="s">
+        <v>366</v>
+      </c>
+      <c r="E87" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" t="s">
+        <v>366</v>
+      </c>
+      <c r="E88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" t="s">
+        <v>366</v>
+      </c>
+      <c r="E89" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" t="s">
+        <v>366</v>
+      </c>
+      <c r="E90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>38</v>
+      </c>
+      <c r="B91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C91" t="s">
+        <v>320</v>
+      </c>
+      <c r="D91" t="s">
+        <v>366</v>
+      </c>
+      <c r="E91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>335</v>
+      </c>
+      <c r="C92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>69</v>
+      </c>
+      <c r="B95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" t="s">
+        <v>366</v>
+      </c>
+      <c r="E95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" t="s">
+        <v>366</v>
+      </c>
+      <c r="E96" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" t="s">
+        <v>366</v>
+      </c>
+      <c r="E98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" t="s">
+        <v>366</v>
+      </c>
+      <c r="E99" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" t="s">
+        <v>471</v>
+      </c>
+      <c r="E101" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D102" t="s">
+        <v>471</v>
+      </c>
+      <c r="E102" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D103" t="s">
+        <v>471</v>
+      </c>
+      <c r="E103" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" t="s">
+        <v>373</v>
+      </c>
+      <c r="D104" t="s">
+        <v>471</v>
+      </c>
+      <c r="E104" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" t="s">
+        <v>373</v>
+      </c>
+      <c r="D105" t="s">
+        <v>471</v>
+      </c>
+      <c r="E105" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>84</v>
+      </c>
+      <c r="B106" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" t="s">
+        <v>471</v>
+      </c>
+      <c r="E106" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
